--- a/tutorial/tutorial_data/pyscnet_scanpy_pbmc/Marker_RankScore.xlsx
+++ b/tutorial/tutorial_data/pyscnet_scanpy_pbmc/Marker_RankScore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">GeneName</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCOA4</t>
   </si>
   <si>
     <t xml:space="preserve">MAFB</t>
@@ -85,7 +82,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,16 +167,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -209,69 +202,69 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
+      <c r="B2" s="0" t="n">
+        <v>181.125</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>181.25</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>42.625</v>
+        <v>199</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>70.75</v>
+        <v>108.875</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>75.625</v>
+        <v>176.25</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>44.75</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>196.125</v>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>180</v>
+        <v>126.25</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>196.625</v>
+        <v>150.375</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>118</v>
+        <v>120.25</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>176.625</v>
+        <v>177.875</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>28.5</v>
+        <v>105.625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
+      <c r="B4" s="0" t="n">
+        <v>184.5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>140.375</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>150.125</v>
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>182.5</v>
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>138.25</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,22 +272,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>175.125</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>66.875</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>97.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>50.5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>119.875</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>69.375</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>168.375</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>117.875</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,22 +295,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>49.125</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>78.625</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>116.75</v>
+        <v>48.5</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>91.5</v>
+        <v>154</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,45 +318,45 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>112.75</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>69.25</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>98.75</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>111.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>164.75</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>155.875</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
+        <v>136.125</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>63.375</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>117.125</v>
+        <v>84.75</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>120</v>
+        <v>64.625</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>129.375</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>42.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,22 +364,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>115.625</v>
+        <v>127.5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>138.5</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>65.5</v>
+        <v>67.375</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>68.5</v>
+        <v>154.375</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>30.5</v>
+        <v>79.875</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,45 +387,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>138.875</v>
+        <v>68.625</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>134.75</v>
+        <v>143.5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>49.375</v>
+        <v>46</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>86.25</v>
+        <v>160.75</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>73</v>
+        <v>119.625</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>56.625</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>103.625</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>163.125</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>108.625</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>158.375</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>116.125</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>137.125</v>
+        <v>142.625</v>
       </c>
     </row>
   </sheetData>
